--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="375">
   <si>
     <t>Path</t>
   </si>
@@ -343,17 +343,44 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>ageRollupGroupCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/age-rollup-group-code}
+    <t>snapshotAgeInMonths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-in-months}
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Age in months at the time of the coverage period</t>
+  </si>
+  <si>
+    <t>snapshotAgeInYears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-in-years}
+</t>
+  </si>
+  <si>
+    <t>The age of the person in years for the month of eligibility or service</t>
+  </si>
+  <si>
+    <t>ageGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/age-group}
+</t>
+  </si>
+  <si>
+    <t>Standard code for age groupings</t>
+  </si>
+  <si>
+    <t>ageGenderGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/age-gender-group}
+</t>
+  </si>
+  <si>
+    <t>Standard code for groupings that combine age and gender</t>
   </si>
   <si>
     <t>coverageMonth</t>
@@ -363,6 +390,42 @@
 </t>
   </si>
   <si>
+    <t>The date which reflects the month of eligibility</t>
+  </si>
+  <si>
+    <t>enrollmentPcp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/enrollment-pcp}
+</t>
+  </si>
+  <si>
+    <t>Provider identifier of the primary care physician for the plan member</t>
+  </si>
+  <si>
+    <t>employeeCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-count}
+</t>
+  </si>
+  <si>
+    <t>A flag of the employees in the eligibility record</t>
+  </si>
+  <si>
+    <t>A flag of the employees in the eligibility record. Each employee is identified with a value of 1. All others are given values of 0.</t>
+  </si>
+  <si>
+    <t>employeeBusinessUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-business-unit}
+</t>
+  </si>
+  <si>
+    <t>Code for the business unit of the employee</t>
+  </si>
+  <si>
     <t>employeeFTECount</t>
   </si>
   <si>
@@ -370,6 +433,148 @@
 </t>
   </si>
   <si>
+    <t>The Full Time Equivalent calculation for the employee</t>
+  </si>
+  <si>
+    <t>The Full Time Equivalent calculation for the employee. Example 1: A full-time employee would have a value of 1. Example 2: A 20-hour per week employee would have a value of 0.5.</t>
+  </si>
+  <si>
+    <t>salaryIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/salary-indicator}
+</t>
+  </si>
+  <si>
+    <t>An indicator of whether the employee status is salaried</t>
+  </si>
+  <si>
+    <t>unionWorkerIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/union-worker-indicator}
+</t>
+  </si>
+  <si>
+    <t>An indicator that the contract holder (subscriber) belongs to a union</t>
+  </si>
+  <si>
+    <t>employeeStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-status}
+</t>
+  </si>
+  <si>
+    <t>The code for the status of the employee</t>
+  </si>
+  <si>
+    <t>jobClassCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/job-class-code}
+</t>
+  </si>
+  <si>
+    <t>Classifcation group of the job role of the employee, for example, Top Executives, Post-secondary teachers, and Engineers</t>
+  </si>
+  <si>
+    <t>jobTitleCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/job-title-code}
+</t>
+  </si>
+  <si>
+    <t>Detailed job title of the employee</t>
+  </si>
+  <si>
+    <t>employeeHireDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-hire-date}
+</t>
+  </si>
+  <si>
+    <t>The first date of employment for the employee</t>
+  </si>
+  <si>
+    <t>employeeTerminationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-termination-date}
+</t>
+  </si>
+  <si>
+    <t>The last date of employment for the employee</t>
+  </si>
+  <si>
+    <t>medicareIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/medicare-indicator}
+</t>
+  </si>
+  <si>
+    <t>An indicator of Medicare coverage for the member</t>
+  </si>
+  <si>
+    <t>memberEmployeeIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/member-employee-indicator}
+</t>
+  </si>
+  <si>
+    <t>Indicates whether the member is either an employee of the health plan, or the dependent of an employee of the health plan</t>
+  </si>
+  <si>
+    <t>attributedProviderReferenceWithPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/attributed-provider-with-period}
+</t>
+  </si>
+  <si>
+    <t>Attributed provider reference with period</t>
+  </si>
+  <si>
+    <t>claimGroupIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-group-identifier}
+</t>
+  </si>
+  <si>
+    <t>Group ID of the plan member</t>
+  </si>
+  <si>
+    <t>Group ID of the plan member. This ID associates the primary plan holder with any dependents.</t>
+  </si>
+  <si>
+    <t>whPayerRecordPopulationCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-record-population-count}
+</t>
+  </si>
+  <si>
+    <t>Specifies whether the member should be counted as eligible for the coverage period</t>
+  </si>
+  <si>
+    <t>Specifies whether the member should be counted as eligible for the coverage period. A value of 1 is used to count the member as eligible for the coverage period. Else the value should be 0.</t>
+  </si>
+  <si>
+    <t>whPayerSubscriberRelationshipCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-subscriber-relationship}
+</t>
+  </si>
+  <si>
+    <t>Health Data Connect standard code for the relationship of the member to the contract holder</t>
+  </si>
+  <si>
     <t>localSubscriberRelationshipCode</t>
   </si>
   <si>
@@ -377,60 +582,7 @@
 </t>
   </si>
   <si>
-    <t>ageGroupCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/age-group-code}
-</t>
-  </si>
-  <si>
-    <t>ageInMonths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/coverage-snapshot-age-in-months}
-</t>
-  </si>
-  <si>
-    <t>ageInYears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/coverage-snapshot-age-in-years}
-</t>
-  </si>
-  <si>
-    <t>employeeStatusCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-status-code}
-</t>
-  </si>
-  <si>
-    <t>employeeHipaaStatusCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-hipaa-status-code}
-</t>
-  </si>
-  <si>
-    <t>localEmployeeStatusCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/local-employee-status-code}
-</t>
-  </si>
-  <si>
-    <t>employeeHireDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-hire-date}
-</t>
-  </si>
-  <si>
-    <t>employeeTerminationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-termination-date}
-</t>
+    <t>Customer-specific code for the relationship of the member to the subscriber</t>
   </si>
   <si>
     <t>planEmployeeCode</t>
@@ -440,11 +592,7 @@
 </t>
   </si>
   <si>
-    <t>pcp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/attributed-provider-with-period}
-</t>
+    <t>Customer-specific code indicating whether the member is an employee of the health plan or the dependent of an employee of the health plan</t>
   </si>
   <si>
     <t>Coverage.modifierExtension</t>
@@ -745,120 +893,6 @@
     <t>C.30</t>
   </si>
   <si>
-    <t>Coverage.payor.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Coverage.payor.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Coverage.payor.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Coverage.payor.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Organiation</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Coverage.payor.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Coverage.payor.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>Coverage.class</t>
   </si>
   <si>
@@ -881,7 +915,28 @@
     <t>Coverage.class.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Coverage.class.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Coverage.class.modifierExtension</t>
@@ -1289,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1299,7 +1354,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="53.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.1640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1308,7 +1363,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="131.890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1325,7 +1380,7 @@
     <col min="25" max="25" width="52.83984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="42.79296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1710,7 +1765,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>51</v>
@@ -2429,7 +2484,7 @@
         <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2518,7 +2573,7 @@
         <v>96</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>42</v>
@@ -2540,13 +2595,13 @@
         <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2660,10 +2715,10 @@
         <v>111</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2752,7 +2807,7 @@
         <v>96</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>42</v>
@@ -2774,13 +2829,13 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2869,7 +2924,7 @@
         <v>96</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>42</v>
@@ -2891,13 +2946,13 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2986,7 +3041,7 @@
         <v>96</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>42</v>
@@ -3008,13 +3063,13 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3103,7 +3158,7 @@
         <v>96</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>42</v>
@@ -3125,13 +3180,13 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3220,7 +3275,7 @@
         <v>96</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>42</v>
@@ -3242,13 +3297,13 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3337,7 +3392,7 @@
         <v>96</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
@@ -3359,13 +3414,13 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3454,7 +3509,7 @@
         <v>96</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
@@ -3476,13 +3531,13 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3571,7 +3626,7 @@
         <v>96</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>42</v>
@@ -3593,13 +3648,13 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3688,7 +3743,7 @@
         <v>96</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>42</v>
@@ -3710,13 +3765,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3805,7 +3860,7 @@
         <v>96</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>42</v>
@@ -3827,13 +3882,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3922,7 +3977,7 @@
         <v>96</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>42</v>
@@ -3944,13 +3999,13 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4036,43 +4091,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="C24" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4120,7 +4173,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4129,7 +4182,7 @@
         <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4155,9 +4208,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4166,7 +4221,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -4178,20 +4233,16 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4239,7 +4290,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4251,13 +4302,13 @@
         <v>63</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4266,7 +4317,7 @@
         <v>42</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>42</v>
@@ -4274,15 +4325,17 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
@@ -4291,26 +4344,22 @@
         <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4334,13 +4383,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4358,28 +4407,28 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>42</v>
@@ -4393,9 +4442,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4413,21 +4464,19 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4451,13 +4500,13 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4475,34 +4524,34 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>42</v>
@@ -4510,9 +4559,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4530,23 +4581,19 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4594,44 +4641,46 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4649,23 +4698,19 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4713,44 +4758,46 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4768,21 +4815,19 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4830,50 +4875,52 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -4885,21 +4932,19 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>193</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4947,44 +4992,46 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>42</v>
       </c>
@@ -5002,23 +5049,19 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -5066,34 +5109,34 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>42</v>
@@ -5101,9 +5144,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5124,20 +5169,16 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5161,13 +5202,13 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -5185,31 +5226,31 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>42</v>
@@ -5220,40 +5261,42 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5302,34 +5345,34 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>42</v>
@@ -5337,7 +5380,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5345,10 +5388,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5357,22 +5400,22 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5421,16 +5464,16 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>64</v>
@@ -5439,24 +5482,24 @@
         <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>229</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5464,7 +5507,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
@@ -5473,22 +5516,26 @@
         <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5512,13 +5559,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5536,10 +5583,10 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>51</v>
@@ -5548,16 +5595,16 @@
         <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>42</v>
@@ -5571,18 +5618,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5591,21 +5638,21 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5629,58 +5676,58 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>42</v>
@@ -5688,7 +5735,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5711,18 +5758,20 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5770,7 +5819,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5779,7 +5828,7 @@
         <v>51</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>64</v>
@@ -5788,24 +5837,24 @@
         <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5828,18 +5877,20 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5848,7 +5899,7 @@
         <v>42</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>42</v>
@@ -5863,13 +5914,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5887,7 +5938,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -5905,24 +5956,24 @@
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5945,18 +5996,18 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -6004,7 +6055,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6022,24 +6073,24 @@
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6047,7 +6098,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>51</v>
@@ -6062,18 +6113,18 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -6121,10 +6172,10 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>51</v>
@@ -6136,27 +6187,27 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6167,7 +6218,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -6176,22 +6227,22 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>267</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6240,13 +6291,13 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
@@ -6264,10 +6315,10 @@
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>42</v>
@@ -6275,7 +6326,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6298,16 +6349,20 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6331,13 +6386,13 @@
         <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>42</v>
@@ -6355,7 +6410,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6367,19 +6422,19 @@
         <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>42</v>
@@ -6390,18 +6445,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6410,21 +6465,21 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6472,34 +6527,34 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>42</v>
@@ -6507,42 +6562,42 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6591,10 +6646,10 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>44</v>
@@ -6603,30 +6658,30 @@
         <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>42</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6634,10 +6689,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6646,20 +6701,22 @@
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6684,13 +6741,13 @@
         <v>42</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6708,13 +6765,13 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>42</v>
@@ -6743,7 +6800,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6751,7 +6808,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -6763,23 +6820,19 @@
         <v>42</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6830,7 +6883,7 @@
         <v>285</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>51</v>
@@ -6839,41 +6892,41 @@
         <v>42</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -6882,21 +6935,21 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6944,75 +6997,77 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7061,25 +7116,25 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -7088,7 +7143,7 @@
         <v>42</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>42</v>
@@ -7096,7 +7151,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7104,7 +7159,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
@@ -7119,17 +7174,17 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7154,13 +7209,13 @@
         <v>42</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -7178,10 +7233,10 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>51</v>
@@ -7202,7 +7257,7 @@
         <v>42</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>42</v>
@@ -7213,18 +7268,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -7233,22 +7288,22 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>267</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -7297,13 +7352,13 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>42</v>
@@ -7321,18 +7376,18 @@
         <v>42</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>42</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7352,19 +7407,21 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7412,7 +7469,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7424,25 +7481,25 @@
         <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>42</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -7451,14 +7508,14 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -7467,21 +7524,21 @@
         <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7529,25 +7586,25 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7556,7 +7613,7 @@
         <v>42</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>42</v>
@@ -7564,42 +7621,40 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7648,31 +7703,31 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>42</v>
@@ -7683,18 +7738,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7703,22 +7758,22 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7743,13 +7798,13 @@
         <v>42</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -7767,13 +7822,13 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
@@ -7802,7 +7857,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7810,7 +7865,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>51</v>
@@ -7822,23 +7877,19 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7886,10 +7937,10 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>51</v>
@@ -7898,34 +7949,34 @@
         <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7944,18 +7995,18 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -8003,7 +8054,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8015,13 +8066,13 @@
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -8042,35 +8093,39 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -8118,25 +8173,25 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -8157,14 +8212,14 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -8173,21 +8228,23 @@
         <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -8211,13 +8268,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -8235,25 +8292,25 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -8270,42 +8327,42 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>97</v>
+        <v>341</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>138</v>
+        <v>344</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>139</v>
+        <v>345</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -8354,42 +8411,42 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>42</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8397,10 +8454,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -8409,20 +8466,20 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8447,13 +8504,13 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8471,13 +8528,13 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
@@ -8506,7 +8563,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8526,21 +8583,19 @@
         <v>42</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8588,7 +8643,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8600,13 +8655,13 @@
         <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8623,18 +8678,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8646,20 +8701,18 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>347</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8707,25 +8760,25 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8742,11 +8795,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8759,23 +8812,25 @@
         <v>42</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>353</v>
+        <v>97</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>356</v>
+        <v>185</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8824,7 +8879,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -8836,29 +8891,499 @@
         <v>42</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>178</v>
+      <c r="AJ65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO64">
+  <autoFilter ref="A1:AO68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8868,7 +9393,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="384">
   <si>
     <t>Path</t>
   </si>
@@ -383,6 +383,16 @@
     <t>Standard code for groupings that combine age and gender</t>
   </si>
   <si>
+    <t>coverageDays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/coverage-days}
+</t>
+  </si>
+  <si>
+    <t>The number of covered days of eligibility</t>
+  </si>
+  <si>
     <t>coverageMonth</t>
   </si>
   <si>
@@ -393,6 +403,16 @@
     <t>The date which reflects the month of eligibility</t>
   </si>
   <si>
+    <t>coverageInsurancePlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/coverage-insurance-plan}
+</t>
+  </si>
+  <si>
+    <t>The insurance plan providing coverage</t>
+  </si>
+  <si>
     <t>enrollmentPcp</t>
   </si>
   <si>
@@ -527,6 +547,16 @@
   </si>
   <si>
     <t>Indicates whether the member is either an employee of the health plan, or the dependent of an employee of the health plan</t>
+  </si>
+  <si>
+    <t>regionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/region-code}
+</t>
+  </si>
+  <si>
+    <t>Customer-specific code for the geographic region of the employee</t>
   </si>
   <si>
     <t>attributedProviderReferenceWithPeriod</t>
@@ -1344,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO68"/>
+  <dimension ref="A1:AO71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3186,7 +3216,7 @@
         <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3275,7 +3305,7 @@
         <v>96</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>42</v>
@@ -3297,13 +3327,13 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3392,7 +3422,7 @@
         <v>96</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
@@ -3414,13 +3444,13 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3509,7 +3539,7 @@
         <v>96</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
@@ -3531,13 +3561,13 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3626,7 +3656,7 @@
         <v>96</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>42</v>
@@ -3648,10 +3678,10 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>138</v>
@@ -4707,7 +4737,7 @@
         <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4796,7 +4826,7 @@
         <v>96</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>42</v>
@@ -4818,13 +4848,13 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4913,7 +4943,7 @@
         <v>96</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>42</v>
@@ -4935,13 +4965,13 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5030,7 +5060,7 @@
         <v>96</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>42</v>
@@ -5052,13 +5082,13 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5147,7 +5177,7 @@
         <v>96</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>42</v>
@@ -5169,10 +5199,10 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>179</v>
@@ -5261,43 +5291,41 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5345,7 +5373,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5354,7 +5382,7 @@
         <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>103</v>
@@ -5380,9 +5408,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5391,7 +5421,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5403,20 +5433,16 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5464,7 +5490,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5476,13 +5502,13 @@
         <v>63</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5491,7 +5517,7 @@
         <v>42</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>42</v>
@@ -5499,15 +5525,17 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
@@ -5516,26 +5544,22 @@
         <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5559,13 +5583,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5583,28 +5607,28 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>42</v>
@@ -5618,40 +5642,42 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5676,13 +5702,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5700,34 +5726,34 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>42</v>
@@ -5735,7 +5761,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5746,7 +5772,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5755,22 +5781,22 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5819,16 +5845,16 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>64</v>
@@ -5837,24 +5863,24 @@
         <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5862,7 +5888,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>51</v>
@@ -5871,25 +5897,25 @@
         <v>42</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5914,13 +5940,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5938,10 +5964,10 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>51</v>
@@ -5953,27 +5979,27 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5996,17 +6022,17 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -6031,13 +6057,13 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -6055,7 +6081,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6076,21 +6102,21 @@
         <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>223</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6098,7 +6124,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>51</v>
@@ -6113,17 +6139,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6172,10 +6200,10 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>51</v>
@@ -6187,27 +6215,27 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6230,19 +6258,19 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6291,7 +6319,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6312,21 +6340,21 @@
         <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6346,22 +6374,20 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6386,13 +6412,13 @@
         <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>42</v>
@@ -6410,7 +6436,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6431,21 +6457,21 @@
         <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6468,17 +6494,17 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6527,10 +6553,10 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>51</v>
@@ -6542,27 +6568,27 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6570,7 +6596,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>51</v>
@@ -6585,19 +6611,19 @@
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>267</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6646,13 +6672,13 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>42</v>
@@ -6667,21 +6693,21 @@
         <v>42</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>275</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6692,7 +6718,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6704,19 +6730,19 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6741,13 +6767,13 @@
         <v>42</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6765,13 +6791,13 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>42</v>
@@ -6789,7 +6815,7 @@
         <v>42</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>42</v>
@@ -6800,7 +6826,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6808,7 +6834,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -6820,19 +6846,21 @@
         <v>42</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>53</v>
+        <v>267</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6880,7 +6908,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -6892,22 +6920,22 @@
         <v>42</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>42</v>
@@ -6915,18 +6943,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -6935,21 +6963,23 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6997,10 +7027,10 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>44</v>
@@ -7009,34 +7039,34 @@
         <v>42</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>42</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7049,25 +7079,25 @@
         <v>42</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7116,7 +7146,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7128,13 +7158,13 @@
         <v>42</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -7151,7 +7181,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7159,7 +7189,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
@@ -7171,21 +7201,19 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -7209,13 +7237,13 @@
         <v>42</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -7233,10 +7261,10 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>51</v>
@@ -7245,13 +7273,13 @@
         <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -7268,18 +7296,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -7288,23 +7316,21 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -7352,75 +7378,77 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>309</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7469,42 +7497,42 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>309</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7512,7 +7540,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>51</v>
@@ -7527,17 +7555,17 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7562,13 +7590,13 @@
         <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -7586,10 +7614,10 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>51</v>
@@ -7613,7 +7641,7 @@
         <v>42</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>42</v>
@@ -7621,7 +7649,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7629,7 +7657,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>51</v>
@@ -7647,14 +7675,16 @@
         <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7703,10 +7733,10 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>51</v>
@@ -7727,29 +7757,29 @@
         <v>42</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>42</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7758,22 +7788,20 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>277</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7822,13 +7850,13 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
@@ -7846,18 +7874,18 @@
         <v>42</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>42</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7877,19 +7905,21 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7937,7 +7967,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -7949,13 +7979,13 @@
         <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7964,7 +7994,7 @@
         <v>42</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>42</v>
@@ -7972,18 +8002,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7992,21 +8022,21 @@
         <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -8054,31 +8084,31 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>42</v>
@@ -8089,11 +8119,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8106,25 +8136,25 @@
         <v>42</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>184</v>
+        <v>337</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -8173,7 +8203,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8185,13 +8215,13 @@
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -8208,7 +8238,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8228,23 +8258,19 @@
         <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -8268,13 +8294,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>338</v>
+        <v>42</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -8292,7 +8318,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8304,13 +8330,13 @@
         <v>42</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -8331,14 +8357,14 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
@@ -8347,23 +8373,21 @@
         <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>341</v>
+        <v>97</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -8411,46 +8435,46 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>309</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8463,23 +8487,25 @@
         <v>42</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>277</v>
+        <v>97</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>329</v>
+        <v>194</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8528,7 +8554,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8540,13 +8566,13 @@
         <v>42</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8563,7 +8589,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8583,19 +8609,23 @@
         <v>42</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8619,13 +8649,13 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -8643,7 +8673,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8655,13 +8685,13 @@
         <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8678,18 +8708,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8698,21 +8728,23 @@
         <v>42</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8760,46 +8792,46 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>290</v>
+        <v>349</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>42</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8812,25 +8844,23 @@
         <v>42</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8879,7 +8909,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -8891,13 +8921,13 @@
         <v>42</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8914,7 +8944,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8922,7 +8952,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>51</v>
@@ -8934,21 +8964,19 @@
         <v>42</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
@@ -8972,13 +9000,13 @@
         <v>42</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>356</v>
+        <v>42</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>357</v>
+        <v>42</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8996,10 +9024,10 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>51</v>
@@ -9008,13 +9036,13 @@
         <v>42</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -9035,14 +9063,14 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -9051,21 +9079,21 @@
         <v>42</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -9113,25 +9141,25 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -9148,42 +9176,42 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>368</v>
+        <v>194</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -9232,25 +9260,25 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -9267,7 +9295,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9275,10 +9303,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -9287,20 +9315,20 @@
         <v>42</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>370</v>
+        <v>216</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -9325,13 +9353,13 @@
         <v>42</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>42</v>
+        <v>367</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
@@ -9349,13 +9377,13 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>42</v>
@@ -9367,23 +9395,376 @@
         <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="AN68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AO68" t="s" s="2">
-        <v>224</v>
+      <c r="L70" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO68">
+  <autoFilter ref="A1:AO71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9393,7 +9774,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5057" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5454" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,6 +460,16 @@
     <t>The age of the person in years for the month of eligibility or service</t>
   </si>
   <si>
+    <t>employeeSnapshotAgeInYears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-snapshot-age-in-years}
+</t>
+  </si>
+  <si>
+    <t>The age of the employee in years for the month of eligibility or service</t>
+  </si>
+  <si>
     <t>ageGroup</t>
   </si>
   <si>
@@ -490,6 +500,90 @@
     <t>Attributed provider reference with period</t>
   </si>
   <si>
+    <t>benefitStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/benefit-status}
+</t>
+  </si>
+  <si>
+    <t>HIPAA standard code for the benefit status</t>
+  </si>
+  <si>
+    <t>Coverage.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Coverage.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Coverage.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/benefit-status</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Coverage.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/hipaa-benefit-status</t>
+  </si>
+  <si>
     <t>claimGroupIdentifier</t>
   </si>
   <si>
@@ -818,78 +912,26 @@
     <t>Code indicating the highest level of education that the employee has completed (e.g., not a high school graduate, high school graduate, some college, associates degree, bachelors degree, graduate degree)</t>
   </si>
   <si>
-    <t>Coverage.extension.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Coverage.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Coverage.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
     <t>http://ibm.com/fhir/cdm/StructureDefinition/employee-education-level</t>
   </si>
   <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Coverage.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>http://ibm.com/fhir/cdm/ValueSet/wh-payer-education-level</t>
+  </si>
+  <si>
+    <t>employeeGender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-gender}
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/wh-payer-education-level</t>
+    <t>Employee gender code</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/employee-gender</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/wh-payer-gender</t>
   </si>
   <si>
     <t>employeeHireDate</t>
@@ -968,7 +1010,10 @@
 </t>
   </si>
   <si>
-    <t>Code for the status of the employee</t>
+    <t>Status of the employee based on one or more code systems</t>
+  </si>
+  <si>
+    <t>Status of the employee based on one or more code systems. Example codes include HIPAA (HipaaEmployeeStatusCodeSystem), Payer (WhPayerEmployeeStatusCodeSystem) or customer-specific codes.</t>
   </si>
   <si>
     <t>employeeUnionId</t>
@@ -1213,26 +1258,6 @@
   </si>
   <si>
     <t>Specifies whether the member should be counted as eligible for the coverage period. A value of 1 is used to count the member as eligible for the coverage period. Else the value should be 0.</t>
-  </si>
-  <si>
-    <t>whPayerSubscriberRelationshipCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-subscriber-relationship}
-</t>
-  </si>
-  <si>
-    <t>Health Data Connect standard code for the relationship of the member to the contract holder</t>
-  </si>
-  <si>
-    <t>localSubscriberRelationshipCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/local-subscriber-relationship-code}
-</t>
-  </si>
-  <si>
-    <t>Code for the relationship of the member to the subscriber</t>
   </si>
   <si>
     <t>Coverage.modifierExtension</t>
@@ -2113,7 +2138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO136"/>
+  <dimension ref="A1:AO147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3838,7 +3863,7 @@
         <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3927,7 +3952,7 @@
         <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>75</v>
@@ -3949,13 +3974,13 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4041,11 +4066,9 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>75</v>
       </c>
@@ -4066,13 +4089,13 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4123,25 +4146,25 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -4158,11 +4181,9 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>75</v>
       </c>
@@ -4171,7 +4192,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>75</v>
@@ -4183,13 +4204,13 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4228,19 +4249,19 @@
         <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -4249,7 +4270,7 @@
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>136</v>
@@ -4258,7 +4279,7 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -4275,17 +4296,15 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>84</v>
@@ -4300,22 +4319,24 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>75</v>
@@ -4357,19 +4378,19 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
@@ -4392,11 +4413,9 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>75</v>
       </c>
@@ -4417,13 +4436,13 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4462,31 +4481,29 @@
         <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -4509,10 +4526,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>75</v>
@@ -4534,13 +4551,13 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4567,13 +4584,11 @@
         <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>75</v>
@@ -4591,19 +4606,19 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>75</v>
@@ -4629,7 +4644,7 @@
         <v>129</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>75</v>
@@ -4651,13 +4666,13 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4746,7 +4761,7 @@
         <v>129</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>75</v>
@@ -4768,13 +4783,13 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4863,7 +4878,7 @@
         <v>129</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>75</v>
@@ -4885,13 +4900,13 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4980,7 +4995,7 @@
         <v>129</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>75</v>
@@ -5002,13 +5017,13 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5097,7 +5112,7 @@
         <v>129</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>75</v>
@@ -5119,13 +5134,13 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5214,7 +5229,7 @@
         <v>129</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>75</v>
@@ -5236,13 +5251,13 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5331,7 +5346,7 @@
         <v>129</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>75</v>
@@ -5353,13 +5368,13 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5448,7 +5463,7 @@
         <v>129</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>75</v>
@@ -5470,13 +5485,13 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5565,7 +5580,7 @@
         <v>129</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>75</v>
@@ -5587,13 +5602,13 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5682,7 +5697,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>75</v>
@@ -5704,13 +5719,13 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5799,7 +5814,7 @@
         <v>129</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>75</v>
@@ -5821,13 +5836,13 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5916,7 +5931,7 @@
         <v>129</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>75</v>
@@ -5938,13 +5953,13 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6033,7 +6048,7 @@
         <v>129</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>75</v>
@@ -6055,13 +6070,13 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6150,7 +6165,7 @@
         <v>129</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>75</v>
@@ -6160,7 +6175,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>75</v>
@@ -6172,13 +6187,13 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6267,7 +6282,7 @@
         <v>129</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>75</v>
@@ -6289,13 +6304,13 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6384,7 +6399,7 @@
         <v>129</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>75</v>
@@ -6406,13 +6421,13 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6501,7 +6516,7 @@
         <v>129</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>75</v>
@@ -6511,7 +6526,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>75</v>
@@ -6523,13 +6538,13 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6618,7 +6633,7 @@
         <v>129</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>75</v>
@@ -6640,13 +6655,13 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6735,7 +6750,7 @@
         <v>129</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>75</v>
@@ -6757,13 +6772,13 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6852,7 +6867,7 @@
         <v>129</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>75</v>
@@ -6874,13 +6889,13 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6969,7 +6984,7 @@
         <v>129</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>75</v>
@@ -6979,7 +6994,7 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>75</v>
@@ -6991,13 +7006,13 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7086,7 +7101,7 @@
         <v>129</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>75</v>
@@ -7108,13 +7123,13 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7203,7 +7218,7 @@
         <v>129</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>75</v>
@@ -7225,13 +7240,13 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7320,7 +7335,7 @@
         <v>129</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>75</v>
@@ -7330,7 +7345,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>75</v>
@@ -7342,13 +7357,13 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7434,9 +7449,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>75</v>
       </c>
@@ -7457,13 +7474,13 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7514,25 +7531,25 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -7549,9 +7566,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>75</v>
       </c>
@@ -7560,7 +7579,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -7572,13 +7591,13 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7617,19 +7636,19 @@
         <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7638,7 +7657,7 @@
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>136</v>
@@ -7647,7 +7666,7 @@
         <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -7664,15 +7683,17 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>84</v>
@@ -7687,24 +7708,22 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>75</v>
@@ -7746,19 +7765,19 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>75</v>
@@ -7781,9 +7800,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
       </c>
@@ -7804,13 +7825,13 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7849,29 +7870,31 @@
         <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB49" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -7894,10 +7917,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>75</v>
@@ -7919,13 +7942,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7952,11 +7975,13 @@
         <v>75</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>75</v>
@@ -7974,19 +7999,19 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>75</v>
@@ -8012,7 +8037,7 @@
         <v>129</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>75</v>
@@ -8022,7 +8047,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>75</v>
@@ -8034,13 +8059,13 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="L51" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8129,7 +8154,7 @@
         <v>129</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>75</v>
@@ -8139,7 +8164,7 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>75</v>
@@ -8151,10 +8176,10 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>280</v>
@@ -8243,11 +8268,9 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>75</v>
       </c>
@@ -8256,7 +8279,7 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>75</v>
@@ -8268,13 +8291,13 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>282</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>283</v>
+        <v>159</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8325,25 +8348,25 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>75</v>
@@ -8360,11 +8383,9 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>75</v>
       </c>
@@ -8373,7 +8394,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>75</v>
@@ -8385,13 +8406,13 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8430,19 +8451,19 @@
         <v>75</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -8451,7 +8472,7 @@
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>136</v>
@@ -8460,7 +8481,7 @@
         <v>75</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -8477,7 +8498,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8485,7 +8506,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>84</v>
@@ -8500,22 +8521,24 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>75</v>
@@ -8557,10 +8580,10 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>254</v>
+        <v>171</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>84</v>
@@ -8575,7 +8598,7 @@
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -8592,7 +8615,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8603,7 +8626,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>75</v>
@@ -8615,13 +8638,13 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8660,37 +8683,35 @@
         <v>75</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -8707,15 +8728,17 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>84</v>
@@ -8730,24 +8753,22 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>75</v>
@@ -8765,13 +8786,11 @@
         <v>75</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>75</v>
@@ -8789,10 +8808,10 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>84</v>
@@ -8801,7 +8820,7 @@
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>75</v>
@@ -8824,9 +8843,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="C58" t="s" s="2">
         <v>75</v>
       </c>
@@ -8847,13 +8868,13 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8892,29 +8913,31 @@
         <v>75</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
@@ -8937,11 +8960,9 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8962,13 +8983,13 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8995,11 +9016,13 @@
         <v>75</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>75</v>
@@ -9017,7 +9040,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>271</v>
+        <v>161</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -9029,13 +9052,13 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -9052,11 +9075,9 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>75</v>
       </c>
@@ -9065,7 +9086,7 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>75</v>
@@ -9077,13 +9098,13 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>291</v>
+        <v>130</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>292</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9122,19 +9143,19 @@
         <v>75</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -9143,7 +9164,7 @@
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>136</v>
@@ -9152,7 +9173,7 @@
         <v>75</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -9169,17 +9190,15 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>84</v>
@@ -9194,22 +9213,24 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>295</v>
+        <v>167</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>75</v>
@@ -9251,19 +9272,19 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>75</v>
@@ -9286,11 +9307,9 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>75</v>
       </c>
@@ -9311,13 +9330,13 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9356,31 +9375,29 @@
         <v>75</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB62" s="2"/>
       <c r="AC62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>75</v>
@@ -9403,10 +9420,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>75</v>
@@ -9428,13 +9445,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>301</v>
+        <v>175</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9461,13 +9478,11 @@
         <v>75</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>75</v>
@@ -9485,19 +9500,19 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>75</v>
@@ -9523,7 +9538,7 @@
         <v>129</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>75</v>
@@ -9533,7 +9548,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>75</v>
@@ -9545,13 +9560,13 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9640,7 +9655,7 @@
         <v>129</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>75</v>
@@ -9650,7 +9665,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>75</v>
@@ -9662,13 +9677,13 @@
         <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9757,7 +9772,7 @@
         <v>129</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>75</v>
@@ -9767,7 +9782,7 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>75</v>
@@ -9779,13 +9794,13 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9874,7 +9889,7 @@
         <v>129</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>75</v>
@@ -9896,13 +9911,13 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9988,11 +10003,9 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>75</v>
       </c>
@@ -10013,13 +10026,13 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>316</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10070,25 +10083,25 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>75</v>
@@ -10105,11 +10118,9 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>75</v>
       </c>
@@ -10118,7 +10129,7 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>75</v>
@@ -10130,13 +10141,13 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>320</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10175,19 +10186,19 @@
         <v>75</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -10196,7 +10207,7 @@
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>136</v>
@@ -10205,7 +10216,7 @@
         <v>75</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>75</v>
@@ -10222,17 +10233,15 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>84</v>
@@ -10247,22 +10256,24 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>322</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>323</v>
+        <v>167</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>75</v>
@@ -10304,19 +10315,19 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>75</v>
@@ -10339,11 +10350,9 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>75</v>
       </c>
@@ -10364,13 +10373,13 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>325</v>
+        <v>173</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10409,31 +10418,29 @@
         <v>75</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB71" s="2"/>
       <c r="AC71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>75</v>
@@ -10456,10 +10463,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>75</v>
@@ -10481,13 +10488,13 @@
         <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>328</v>
+        <v>173</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>329</v>
+        <v>174</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>329</v>
+        <v>175</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10514,13 +10521,11 @@
         <v>75</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>75</v>
@@ -10538,19 +10543,19 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>75</v>
@@ -10573,9 +10578,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>75</v>
       </c>
@@ -10596,13 +10603,13 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>304</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10653,25 +10660,25 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -10688,9 +10695,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>75</v>
       </c>
@@ -10699,7 +10708,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>75</v>
@@ -10711,13 +10720,13 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>130</v>
+        <v>307</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10756,19 +10765,19 @@
         <v>75</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10777,7 +10786,7 @@
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>136</v>
@@ -10786,7 +10795,7 @@
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -10803,15 +10812,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>84</v>
@@ -10826,24 +10837,22 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>75</v>
@@ -10885,19 +10894,19 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>75</v>
@@ -10920,9 +10929,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>75</v>
       </c>
@@ -10943,13 +10954,13 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10988,29 +10999,31 @@
         <v>75</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB76" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>75</v>
@@ -11033,10 +11046,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>75</v>
@@ -11058,13 +11071,13 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11091,11 +11104,13 @@
         <v>75</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X77" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y77" t="s" s="2">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>75</v>
@@ -11113,19 +11128,19 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>75</v>
@@ -11151,7 +11166,7 @@
         <v>129</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>75</v>
@@ -11173,13 +11188,13 @@
         <v>75</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11268,7 +11283,7 @@
         <v>129</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>75</v>
@@ -11290,13 +11305,13 @@
         <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11385,7 +11400,7 @@
         <v>129</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>75</v>
@@ -11407,13 +11422,13 @@
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11502,7 +11517,7 @@
         <v>129</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -11524,13 +11539,13 @@
         <v>75</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11619,7 +11634,7 @@
         <v>129</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>75</v>
@@ -11641,13 +11656,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11736,7 +11751,7 @@
         <v>129</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>75</v>
@@ -11758,13 +11773,13 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11853,7 +11868,7 @@
         <v>129</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>75</v>
@@ -11875,13 +11890,13 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11970,7 +11985,7 @@
         <v>129</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>75</v>
@@ -11992,13 +12007,13 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12084,7 +12099,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12110,10 +12125,10 @@
         <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12164,7 +12179,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -12182,7 +12197,7 @@
         <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>75</v>
@@ -12199,7 +12214,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12270,7 +12285,7 @@
         <v>133</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>75</v>
@@ -12279,7 +12294,7 @@
         <v>134</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -12314,7 +12329,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12340,13 +12355,13 @@
         <v>100</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12354,7 +12369,7 @@
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>75</v>
@@ -12396,7 +12411,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>84</v>
@@ -12431,7 +12446,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12454,13 +12469,13 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12499,17 +12514,17 @@
         <v>75</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="AB89" s="2"/>
       <c r="AC89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -12544,10 +12559,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>75</v>
@@ -12569,13 +12584,13 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12602,11 +12617,11 @@
         <v>75</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>75</v>
@@ -12624,7 +12639,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -12662,7 +12677,7 @@
         <v>129</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>75</v>
@@ -12684,13 +12699,13 @@
         <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12776,9 +12791,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B92" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="C92" t="s" s="2">
         <v>75</v>
       </c>
@@ -12799,13 +12816,13 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>86</v>
+        <v>350</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>253</v>
+        <v>351</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12856,25 +12873,25 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>75</v>
@@ -12891,9 +12908,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B93" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="C93" t="s" s="2">
         <v>75</v>
       </c>
@@ -12902,7 +12921,7 @@
         <v>76</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>75</v>
@@ -12914,13 +12933,13 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>130</v>
+        <v>353</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>131</v>
+        <v>354</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12959,19 +12978,19 @@
         <v>75</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -12980,7 +12999,7 @@
         <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>136</v>
@@ -12989,7 +13008,7 @@
         <v>75</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>75</v>
@@ -13006,15 +13025,17 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B94" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="C94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>84</v>
@@ -13029,24 +13050,22 @@
         <v>75</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>260</v>
+        <v>357</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>75</v>
@@ -13088,19 +13107,19 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>75</v>
@@ -13123,9 +13142,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B95" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="C95" t="s" s="2">
         <v>75</v>
       </c>
@@ -13146,13 +13167,13 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>266</v>
+        <v>359</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13191,29 +13212,31 @@
         <v>75</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB95" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>75</v>
@@ -13236,10 +13259,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>75</v>
@@ -13261,13 +13284,13 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>266</v>
+        <v>362</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>267</v>
+        <v>363</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13294,11 +13317,13 @@
         <v>75</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X96" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y96" t="s" s="2">
-        <v>362</v>
+        <v>75</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>75</v>
@@ -13316,19 +13341,19 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>75</v>
@@ -13354,7 +13379,7 @@
         <v>129</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>75</v>
@@ -13376,13 +13401,13 @@
         <v>75</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13471,7 +13496,7 @@
         <v>129</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>75</v>
@@ -13493,13 +13518,13 @@
         <v>75</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13585,11 +13610,9 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
         <v>75</v>
       </c>
@@ -13610,13 +13633,13 @@
         <v>75</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>370</v>
+        <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>371</v>
+        <v>159</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>372</v>
+        <v>160</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13667,25 +13690,25 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>75</v>
@@ -13702,11 +13725,9 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
         <v>75</v>
       </c>
@@ -13715,7 +13736,7 @@
         <v>76</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>75</v>
@@ -13727,13 +13748,13 @@
         <v>75</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>375</v>
+        <v>131</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13772,19 +13793,19 @@
         <v>75</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -13793,7 +13814,7 @@
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>136</v>
@@ -13802,7 +13823,7 @@
         <v>75</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>75</v>
@@ -13819,17 +13840,15 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>84</v>
@@ -13844,22 +13863,24 @@
         <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>377</v>
+        <v>100</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M101" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="R101" t="s" s="2">
         <v>75</v>
@@ -13901,19 +13922,19 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>75</v>
@@ -13936,43 +13957,39 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>379</v>
+        <v>172</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>381</v>
+        <v>174</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>75</v>
       </c>
@@ -14008,31 +14025,29 @@
         <v>75</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB102" s="2"/>
       <c r="AC102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>385</v>
+        <v>178</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>75</v>
@@ -14055,9 +14070,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B103" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C103" t="s" s="2">
         <v>75</v>
       </c>
@@ -14066,7 +14083,7 @@
         <v>76</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>75</v>
@@ -14078,20 +14095,16 @@
         <v>75</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>387</v>
+        <v>173</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>388</v>
+        <v>174</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>75</v>
       </c>
@@ -14115,13 +14128,11 @@
         <v>75</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>75</v>
@@ -14139,16 +14150,16 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>386</v>
+        <v>178</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>97</v>
@@ -14157,7 +14168,7 @@
         <v>75</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>392</v>
+        <v>98</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>75</v>
@@ -14166,7 +14177,7 @@
         <v>75</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>393</v>
+        <v>75</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>75</v>
@@ -14174,15 +14185,17 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B104" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="C104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>84</v>
@@ -14191,26 +14204,22 @@
         <v>75</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>106</v>
+        <v>373</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>75</v>
       </c>
@@ -14234,13 +14243,13 @@
         <v>75</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>401</v>
+        <v>75</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>75</v>
@@ -14258,28 +14267,28 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>394</v>
+        <v>135</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>402</v>
+        <v>75</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>403</v>
+        <v>98</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>75</v>
@@ -14293,7 +14302,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>405</v>
+        <v>158</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14313,21 +14322,19 @@
         <v>75</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>406</v>
+        <v>159</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>407</v>
+        <v>160</v>
       </c>
       <c r="M105" s="2"/>
-      <c r="N105" t="s" s="2">
-        <v>408</v>
-      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>75</v>
       </c>
@@ -14351,13 +14358,13 @@
         <v>75</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>409</v>
+        <v>75</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>75</v>
@@ -14375,7 +14382,7 @@
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>405</v>
+        <v>161</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>76</v>
@@ -14387,22 +14394,22 @@
         <v>75</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>75</v>
@@ -14410,7 +14417,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>413</v>
+        <v>163</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14421,7 +14428,7 @@
         <v>76</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>75</v>
@@ -14430,23 +14437,19 @@
         <v>75</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>414</v>
+        <v>130</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>415</v>
+        <v>131</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>75</v>
       </c>
@@ -14482,31 +14485,31 @@
         <v>75</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>413</v>
+        <v>165</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>75</v>
@@ -14515,21 +14518,21 @@
         <v>75</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>422</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>423</v>
+        <v>166</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14537,7 +14540,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>84</v>
@@ -14549,29 +14552,27 @@
         <v>75</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>424</v>
+        <v>100</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>425</v>
+        <v>167</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>426</v>
+        <v>168</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>75</v>
@@ -14613,10 +14614,10 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>423</v>
+        <v>171</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>84</v>
@@ -14625,30 +14626,30 @@
         <v>75</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>422</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>429</v>
+        <v>172</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14668,21 +14669,19 @@
         <v>75</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>430</v>
+        <v>174</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>431</v>
+        <v>175</v>
       </c>
       <c r="M108" s="2"/>
-      <c r="N108" t="s" s="2">
-        <v>432</v>
-      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>75</v>
       </c>
@@ -14718,19 +14717,17 @@
         <v>75</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB108" s="2"/>
       <c r="AC108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>429</v>
+        <v>178</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>76</v>
@@ -14748,32 +14745,34 @@
         <v>75</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>422</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B109" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>84</v>
@@ -14785,21 +14784,19 @@
         <v>75</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>434</v>
+        <v>173</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>435</v>
+        <v>174</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>436</v>
+        <v>175</v>
       </c>
       <c r="M109" s="2"/>
-      <c r="N109" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>75</v>
       </c>
@@ -14823,13 +14820,11 @@
         <v>75</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X109" s="2"/>
       <c r="Y109" t="s" s="2">
-        <v>75</v>
+        <v>376</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>75</v>
@@ -14847,10 +14842,10 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>433</v>
+        <v>178</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>84</v>
@@ -14862,29 +14857,31 @@
         <v>97</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>438</v>
+        <v>75</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>422</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B110" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="C110" t="s" s="2">
         <v>75</v>
       </c>
@@ -14902,23 +14899,19 @@
         <v>75</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>378</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>75</v>
       </c>
@@ -14966,34 +14959,34 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>439</v>
+        <v>135</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>444</v>
+        <v>75</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>445</v>
+        <v>75</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>75</v>
@@ -15001,9 +14994,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B111" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="C111" t="s" s="2">
         <v>75</v>
       </c>
@@ -15024,20 +15019,16 @@
         <v>75</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>266</v>
+        <v>381</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>75</v>
       </c>
@@ -15061,13 +15052,13 @@
         <v>75</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>451</v>
+        <v>75</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>452</v>
+        <v>75</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>75</v>
@@ -15085,31 +15076,31 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>446</v>
+        <v>135</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>453</v>
+        <v>75</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>75</v>
@@ -15120,15 +15111,17 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="C112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>84</v>
@@ -15140,21 +15133,19 @@
         <v>75</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>455</v>
+        <v>384</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>457</v>
+        <v>386</v>
       </c>
       <c r="M112" s="2"/>
-      <c r="N112" t="s" s="2">
-        <v>458</v>
-      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>75</v>
       </c>
@@ -15202,34 +15193,34 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>454</v>
+        <v>135</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>459</v>
+        <v>75</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>460</v>
+        <v>98</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>461</v>
+        <v>75</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>462</v>
+        <v>75</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>75</v>
@@ -15237,42 +15228,42 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>463</v>
+        <v>387</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>464</v>
+        <v>130</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>465</v>
+        <v>389</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>467</v>
+        <v>391</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>468</v>
+        <v>392</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>75</v>
@@ -15321,10 +15312,10 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>463</v>
+        <v>393</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -15333,30 +15324,30 @@
         <v>75</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>469</v>
+        <v>75</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>470</v>
+        <v>75</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>471</v>
+        <v>75</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>472</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>473</v>
+        <v>394</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15379,19 +15370,19 @@
         <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>474</v>
+        <v>395</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>475</v>
+        <v>396</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>476</v>
+        <v>397</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>477</v>
+        <v>398</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>478</v>
+        <v>399</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>75</v>
@@ -15440,7 +15431,7 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>473</v>
+        <v>394</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>76</v>
@@ -15449,7 +15440,7 @@
         <v>77</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>97</v>
@@ -15458,7 +15449,7 @@
         <v>75</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>75</v>
@@ -15467,7 +15458,7 @@
         <v>75</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>75</v>
+        <v>401</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>75</v>
@@ -15475,7 +15466,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>479</v>
+        <v>402</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15483,7 +15474,7 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>84</v>
@@ -15492,22 +15483,26 @@
         <v>75</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>75</v>
       </c>
@@ -15531,13 +15526,13 @@
         <v>75</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>75</v>
+        <v>407</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>75</v>
+        <v>408</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>75</v>
@@ -15555,10 +15550,10 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>254</v>
+        <v>402</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>84</v>
@@ -15567,16 +15562,16 @@
         <v>75</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>255</v>
+        <v>411</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>75</v>
@@ -15590,18 +15585,18 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>75</v>
@@ -15610,21 +15605,21 @@
         <v>75</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>75</v>
       </c>
@@ -15648,13 +15643,13 @@
         <v>75</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>75</v>
+        <v>417</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>75</v>
@@ -15672,34 +15667,34 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>258</v>
+        <v>413</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>75</v>
+        <v>419</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>75</v>
@@ -15707,42 +15702,42 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>483</v>
+        <v>421</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>484</v>
+        <v>75</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>130</v>
+        <v>422</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>75</v>
@@ -15791,42 +15786,42 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15834,7 +15829,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>84</v>
@@ -15849,17 +15844,19 @@
         <v>85</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>266</v>
+        <v>432</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M118" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N118" t="s" s="2">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>75</v>
@@ -15884,11 +15881,13 @@
         <v>75</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X118" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y118" t="s" s="2">
-        <v>492</v>
+        <v>75</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>75</v>
@@ -15906,10 +15905,10 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>84</v>
@@ -15927,21 +15926,21 @@
         <v>75</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15949,7 +15948,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>84</v>
@@ -15967,16 +15966,14 @@
         <v>86</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>75</v>
@@ -16025,10 +16022,10 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>84</v>
@@ -16046,21 +16043,21 @@
         <v>75</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>498</v>
+        <v>428</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>500</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16068,7 +16065,7 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F120" t="s" s="2">
         <v>84</v>
@@ -16083,17 +16080,17 @@
         <v>85</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>86</v>
+        <v>442</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>502</v>
+        <v>443</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>504</v>
+        <v>445</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>75</v>
@@ -16142,10 +16139,10 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>84</v>
@@ -16157,27 +16154,27 @@
         <v>97</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>75</v>
+        <v>446</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>498</v>
+        <v>428</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>500</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16200,17 +16197,19 @@
         <v>85</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>506</v>
+        <v>86</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>507</v>
+        <v>448</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M121" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="N121" t="s" s="2">
-        <v>509</v>
+        <v>451</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>75</v>
@@ -16259,7 +16258,7 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>76</v>
@@ -16283,10 +16282,10 @@
         <v>75</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>75</v>
+        <v>452</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>75</v>
@@ -16294,7 +16293,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16314,20 +16313,22 @@
         <v>75</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M122" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="N122" t="s" s="2">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>75</v>
@@ -16352,13 +16353,13 @@
         <v>75</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>75</v>
+        <v>459</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>75</v>
@@ -16376,7 +16377,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>76</v>
@@ -16400,7 +16401,7 @@
         <v>75</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>75</v>
@@ -16411,18 +16412,18 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>516</v>
+        <v>75</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>75</v>
@@ -16431,22 +16432,20 @@
         <v>75</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>520</v>
+        <v>466</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>75</v>
@@ -16495,13 +16494,13 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>75</v>
@@ -16510,19 +16509,19 @@
         <v>97</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>75</v>
+        <v>467</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>75</v>
+        <v>468</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>75</v>
+        <v>469</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>75</v>
+        <v>470</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>75</v>
@@ -16530,7 +16529,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16538,7 +16537,7 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F124" t="s" s="2">
         <v>84</v>
@@ -16550,19 +16549,23 @@
         <v>75</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>86</v>
+        <v>472</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>252</v>
+        <v>473</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>75</v>
       </c>
@@ -16610,46 +16613,46 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>254</v>
+        <v>471</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>75</v>
+        <v>477</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>75</v>
+        <v>478</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>75</v>
+        <v>479</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>75</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16668,18 +16671,20 @@
         <v>75</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>130</v>
+        <v>482</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>75</v>
       </c>
@@ -16727,7 +16732,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>258</v>
+        <v>481</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>76</v>
@@ -16739,13 +16744,13 @@
         <v>75</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>75</v>
@@ -16762,43 +16767,39 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>484</v>
+        <v>75</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>485</v>
+        <v>159</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>75</v>
       </c>
@@ -16846,25 +16847,25 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>487</v>
+        <v>161</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>75</v>
@@ -16881,18 +16882,18 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>75</v>
@@ -16901,23 +16902,21 @@
         <v>75</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>75</v>
       </c>
@@ -16941,13 +16940,13 @@
         <v>75</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>529</v>
+        <v>75</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>530</v>
+        <v>75</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>75</v>
@@ -16965,25 +16964,25 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>524</v>
+        <v>165</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>75</v>
@@ -17000,42 +16999,42 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>75</v>
+        <v>492</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>532</v>
+        <v>130</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>535</v>
+        <v>391</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>536</v>
+        <v>392</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>75</v>
@@ -17084,42 +17083,42 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>498</v>
+        <v>75</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>499</v>
+        <v>75</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>500</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17127,10 +17126,10 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>75</v>
@@ -17139,20 +17138,20 @@
         <v>75</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>474</v>
+        <v>173</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>75</v>
@@ -17177,13 +17176,11 @@
         <v>75</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X129" s="2"/>
       <c r="Y129" t="s" s="2">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>75</v>
@@ -17201,13 +17198,13 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>75</v>
@@ -17236,7 +17233,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17244,7 +17241,7 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>84</v>
@@ -17256,19 +17253,23 @@
         <v>75</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>252</v>
+        <v>502</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>75</v>
       </c>
@@ -17316,10 +17317,10 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>254</v>
+        <v>501</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>84</v>
@@ -17328,41 +17329,41 @@
         <v>75</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>75</v>
+        <v>506</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>75</v>
+        <v>507</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>75</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>75</v>
@@ -17371,21 +17372,21 @@
         <v>75</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>75</v>
       </c>
@@ -17433,77 +17434,75 @@
         <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>258</v>
+        <v>509</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>75</v>
+        <v>506</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>75</v>
+        <v>507</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>75</v>
+        <v>508</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>484</v>
+        <v>75</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>130</v>
+        <v>514</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>384</v>
+        <v>517</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>75</v>
@@ -17552,25 +17551,25 @@
         <v>75</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>75</v>
@@ -17579,7 +17578,7 @@
         <v>75</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>75</v>
+        <v>453</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>75</v>
@@ -17587,7 +17586,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17595,7 +17594,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>84</v>
@@ -17610,17 +17609,17 @@
         <v>85</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>75</v>
@@ -17645,13 +17644,13 @@
         <v>75</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>547</v>
+        <v>75</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>548</v>
+        <v>75</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>549</v>
+        <v>75</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>75</v>
@@ -17669,10 +17668,10 @@
         <v>75</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>84</v>
@@ -17693,7 +17692,7 @@
         <v>75</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>75</v>
+        <v>522</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>75</v>
@@ -17704,18 +17703,18 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>75</v>
+        <v>524</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>75</v>
@@ -17724,20 +17723,22 @@
         <v>75</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="N134" t="s" s="2">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>75</v>
@@ -17786,13 +17787,13 @@
         <v>75</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>75</v>
@@ -17821,7 +17822,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17844,20 +17845,16 @@
         <v>75</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>555</v>
+        <v>86</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>556</v>
+        <v>159</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>75</v>
       </c>
@@ -17905,7 +17902,7 @@
         <v>75</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>554</v>
+        <v>161</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>76</v>
@@ -17917,13 +17914,13 @@
         <v>75</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>75</v>
@@ -17940,11 +17937,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17963,18 +17960,18 @@
         <v>75</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>561</v>
+        <v>130</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>562</v>
+        <v>489</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>75</v>
       </c>
@@ -18022,7 +18019,7 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>560</v>
+        <v>165</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>76</v>
@@ -18034,25 +18031,1320 @@
         <v>75</v>
       </c>
       <c r="AI136" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI138" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AN136" t="s" s="2">
+      <c r="AJ138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M144" s="2"/>
+      <c r="N144" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO144" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO145" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AO136" t="s" s="2">
-        <v>422</v>
+      <c r="M146" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO146" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AO147" t="s" s="2">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2144,45 +2144,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.57421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.1640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="139.546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="144.8984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.31640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="143.74609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.4453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="59.44921875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="62.87890625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="62.85546875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-coverage.xlsx
+++ b/StructureDefinition-cdm-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="576">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,243 +277,247 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Coverage.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Coverage.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Coverage.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Coverage.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Coverage.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Coverage.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>snapshotAgeInMonths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-in-months}
+</t>
+  </si>
+  <si>
+    <t>Age in months at the time of the coverage period</t>
+  </si>
+  <si>
+    <t>snapshotAgeInYears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-in-years}
+</t>
+  </si>
+  <si>
+    <t>The age of the person in years for the month of eligibility or service</t>
+  </si>
+  <si>
+    <t>employeeSnapshotAgeInYears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-snapshot-age-in-years}
+</t>
+  </si>
+  <si>
+    <t>The age of the employee in years for the month of eligibility or service</t>
+  </si>
+  <si>
+    <t>ageGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/age-group}
+</t>
+  </si>
+  <si>
+    <t>Standard code for age groupings</t>
+  </si>
+  <si>
+    <t>ageGenderGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/age-gender-group}
+</t>
+  </si>
+  <si>
+    <t>Standard code for groupings that combine age and gender</t>
+  </si>
+  <si>
+    <t>attributedProviderReferenceWithPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/attributed-provider-with-period}
+</t>
+  </si>
+  <si>
+    <t>Attributed provider reference with period</t>
+  </si>
+  <si>
+    <t>benefitStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/benefit-status}
+</t>
+  </si>
+  <si>
+    <t>HIPAA standard code for the benefit status</t>
+  </si>
+  <si>
+    <t>Coverage.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Coverage.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Coverage.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Coverage.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Coverage.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Coverage.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Coverage.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>snapshotAgeInMonths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-in-months}
-</t>
-  </si>
-  <si>
-    <t>Age in months at the time of the coverage period</t>
-  </si>
-  <si>
-    <t>snapshotAgeInYears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-in-years}
-</t>
-  </si>
-  <si>
-    <t>The age of the person in years for the month of eligibility or service</t>
-  </si>
-  <si>
-    <t>employeeSnapshotAgeInYears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-snapshot-age-in-years}
-</t>
-  </si>
-  <si>
-    <t>The age of the employee in years for the month of eligibility or service</t>
-  </si>
-  <si>
-    <t>ageGroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/age-group}
-</t>
-  </si>
-  <si>
-    <t>Standard code for age groupings</t>
-  </si>
-  <si>
-    <t>ageGenderGroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/age-gender-group}
-</t>
-  </si>
-  <si>
-    <t>Standard code for groupings that combine age and gender</t>
-  </si>
-  <si>
-    <t>attributedProviderReferenceWithPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/attributed-provider-with-period}
-</t>
-  </si>
-  <si>
-    <t>Attributed provider reference with period</t>
-  </si>
-  <si>
-    <t>benefitStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/benefit-status}
-</t>
-  </si>
-  <si>
-    <t>HIPAA standard code for the benefit status</t>
-  </si>
-  <si>
-    <t>Coverage.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4086,13 +4090,13 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4143,7 +4147,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4161,7 +4165,7 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -4178,7 +4182,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4249,7 +4253,7 @@
         <v>134</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>76</v>
@@ -4258,7 +4262,7 @@
         <v>135</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4293,7 +4297,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4319,13 +4323,13 @@
         <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4333,7 +4337,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>76</v>
@@ -4375,7 +4379,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>85</v>
@@ -4410,7 +4414,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4433,13 +4437,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4478,17 +4482,17 @@
         <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4523,10 +4527,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>76</v>
@@ -4548,13 +4552,13 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4581,11 +4585,11 @@
         <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
@@ -4603,7 +4607,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4641,7 +4645,7 @@
         <v>130</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>76</v>
@@ -4663,13 +4667,13 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4758,7 +4762,7 @@
         <v>130</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -4780,13 +4784,13 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4875,7 +4879,7 @@
         <v>130</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>76</v>
@@ -4897,13 +4901,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4992,7 +4996,7 @@
         <v>130</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>76</v>
@@ -5014,13 +5018,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5109,7 +5113,7 @@
         <v>130</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>76</v>
@@ -5131,13 +5135,13 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5226,7 +5230,7 @@
         <v>130</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
@@ -5248,13 +5252,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5343,7 +5347,7 @@
         <v>130</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>76</v>
@@ -5365,13 +5369,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5460,7 +5464,7 @@
         <v>130</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>76</v>
@@ -5482,13 +5486,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5577,7 +5581,7 @@
         <v>130</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>76</v>
@@ -5599,13 +5603,13 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5694,7 +5698,7 @@
         <v>130</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
@@ -5716,13 +5720,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5811,7 +5815,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
@@ -5833,13 +5837,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5928,7 +5932,7 @@
         <v>130</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>76</v>
@@ -5950,13 +5954,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6045,7 +6049,7 @@
         <v>130</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>76</v>
@@ -6067,13 +6071,13 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6162,7 +6166,7 @@
         <v>130</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>76</v>
@@ -6184,13 +6188,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6279,7 +6283,7 @@
         <v>130</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>76</v>
@@ -6301,13 +6305,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6396,7 +6400,7 @@
         <v>130</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>76</v>
@@ -6418,13 +6422,13 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6513,7 +6517,7 @@
         <v>130</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>76</v>
@@ -6535,13 +6539,13 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6630,7 +6634,7 @@
         <v>130</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>76</v>
@@ -6652,13 +6656,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6747,7 +6751,7 @@
         <v>130</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>76</v>
@@ -6769,13 +6773,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6864,7 +6868,7 @@
         <v>130</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>76</v>
@@ -6886,13 +6890,13 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6981,7 +6985,7 @@
         <v>130</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>76</v>
@@ -7003,13 +7007,13 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7098,7 +7102,7 @@
         <v>130</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>76</v>
@@ -7120,13 +7124,13 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7215,7 +7219,7 @@
         <v>130</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>76</v>
@@ -7237,13 +7241,13 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7332,7 +7336,7 @@
         <v>130</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>76</v>
@@ -7354,13 +7358,13 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7449,7 +7453,7 @@
         <v>130</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>76</v>
@@ -7471,13 +7475,13 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7566,7 +7570,7 @@
         <v>130</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>76</v>
@@ -7588,13 +7592,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7683,7 +7687,7 @@
         <v>130</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>76</v>
@@ -7705,13 +7709,13 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7800,7 +7804,7 @@
         <v>130</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>76</v>
@@ -7822,13 +7826,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7917,7 +7921,7 @@
         <v>130</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>76</v>
@@ -7939,13 +7943,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8034,7 +8038,7 @@
         <v>130</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>76</v>
@@ -8056,13 +8060,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8151,7 +8155,7 @@
         <v>130</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>76</v>
@@ -8173,13 +8177,13 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8288,13 +8292,13 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8345,7 +8349,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8363,7 +8367,7 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -8380,7 +8384,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8451,7 +8455,7 @@
         <v>134</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>76</v>
@@ -8460,7 +8464,7 @@
         <v>135</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8495,7 +8499,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8521,13 +8525,13 @@
         <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8535,7 +8539,7 @@
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>76</v>
@@ -8577,7 +8581,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>85</v>
@@ -8612,7 +8616,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8635,13 +8639,13 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8680,17 +8684,17 @@
         <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8725,10 +8729,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>76</v>
@@ -8750,13 +8754,13 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8783,11 +8787,11 @@
         <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>76</v>
@@ -8805,7 +8809,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8843,7 +8847,7 @@
         <v>130</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>76</v>
@@ -8865,13 +8869,13 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8980,13 +8984,13 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9037,7 +9041,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9055,7 +9059,7 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -9072,7 +9076,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9143,7 +9147,7 @@
         <v>134</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>76</v>
@@ -9152,7 +9156,7 @@
         <v>135</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9187,7 +9191,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9213,13 +9217,13 @@
         <v>101</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9227,7 +9231,7 @@
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>76</v>
@@ -9269,7 +9273,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>85</v>
@@ -9304,7 +9308,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9327,13 +9331,13 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9372,17 +9376,17 @@
         <v>76</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB62" s="2"/>
       <c r="AC62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9417,10 +9421,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>76</v>
@@ -9442,13 +9446,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9475,11 +9479,11 @@
         <v>76</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>76</v>
@@ -9497,7 +9501,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9535,7 +9539,7 @@
         <v>130</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>76</v>
@@ -9557,13 +9561,13 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9652,7 +9656,7 @@
         <v>130</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>76</v>
@@ -9674,13 +9678,13 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9769,7 +9773,7 @@
         <v>130</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>76</v>
@@ -9791,13 +9795,13 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9886,7 +9890,7 @@
         <v>130</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>76</v>
@@ -9908,13 +9912,13 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10023,13 +10027,13 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10080,7 +10084,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10098,7 +10102,7 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -10115,7 +10119,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10186,7 +10190,7 @@
         <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>76</v>
@@ -10195,7 +10199,7 @@
         <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10230,7 +10234,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10256,13 +10260,13 @@
         <v>101</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10270,7 +10274,7 @@
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>76</v>
@@ -10312,7 +10316,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>85</v>
@@ -10347,7 +10351,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10370,13 +10374,13 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10415,17 +10419,17 @@
         <v>76</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB71" s="2"/>
       <c r="AC71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10460,10 +10464,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>76</v>
@@ -10485,13 +10489,13 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10518,11 +10522,11 @@
         <v>76</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -10540,7 +10544,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10578,7 +10582,7 @@
         <v>130</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>76</v>
@@ -10600,13 +10604,13 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10695,7 +10699,7 @@
         <v>130</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>76</v>
@@ -10717,13 +10721,13 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10812,7 +10816,7 @@
         <v>130</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>76</v>
@@ -10834,13 +10838,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10929,7 +10933,7 @@
         <v>130</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>76</v>
@@ -10951,13 +10955,13 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11046,7 +11050,7 @@
         <v>130</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>76</v>
@@ -11068,13 +11072,13 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11163,7 +11167,7 @@
         <v>130</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>76</v>
@@ -11185,13 +11189,13 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11280,7 +11284,7 @@
         <v>130</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>76</v>
@@ -11302,13 +11306,13 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11397,7 +11401,7 @@
         <v>130</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>76</v>
@@ -11419,13 +11423,13 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11514,7 +11518,7 @@
         <v>130</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>76</v>
@@ -11536,13 +11540,13 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11631,7 +11635,7 @@
         <v>130</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>76</v>
@@ -11653,13 +11657,13 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11748,7 +11752,7 @@
         <v>130</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>76</v>
@@ -11770,13 +11774,13 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11865,7 +11869,7 @@
         <v>130</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>76</v>
@@ -11887,13 +11891,13 @@
         <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11982,7 +11986,7 @@
         <v>130</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>76</v>
@@ -12004,13 +12008,13 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12119,13 +12123,13 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12176,7 +12180,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12194,7 +12198,7 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -12211,7 +12215,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12282,7 +12286,7 @@
         <v>134</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>76</v>
@@ -12291,7 +12295,7 @@
         <v>135</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12326,7 +12330,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12352,13 +12356,13 @@
         <v>101</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12366,7 +12370,7 @@
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>76</v>
@@ -12408,7 +12412,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>85</v>
@@ -12443,7 +12447,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12466,13 +12470,13 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12511,17 +12515,17 @@
         <v>76</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB89" s="2"/>
       <c r="AC89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12556,10 +12560,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>76</v>
@@ -12581,13 +12585,13 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12614,11 +12618,11 @@
         <v>76</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -12636,7 +12640,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12674,7 +12678,7 @@
         <v>130</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>76</v>
@@ -12696,13 +12700,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12791,7 +12795,7 @@
         <v>130</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>76</v>
@@ -12813,13 +12817,13 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12908,7 +12912,7 @@
         <v>130</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>76</v>
@@ -12930,13 +12934,13 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13025,7 +13029,7 @@
         <v>130</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>76</v>
@@ -13047,13 +13051,13 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13142,7 +13146,7 @@
         <v>130</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>76</v>
@@ -13164,13 +13168,13 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13259,7 +13263,7 @@
         <v>130</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>76</v>
@@ -13281,13 +13285,13 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13376,7 +13380,7 @@
         <v>130</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>76</v>
@@ -13398,13 +13402,13 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13493,7 +13497,7 @@
         <v>130</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>76</v>
@@ -13515,13 +13519,13 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13630,13 +13634,13 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13687,7 +13691,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13705,7 +13709,7 @@
         <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>76</v>
@@ -13722,7 +13726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13793,7 +13797,7 @@
         <v>134</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>76</v>
@@ -13802,7 +13806,7 @@
         <v>135</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13837,7 +13841,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13863,13 +13867,13 @@
         <v>101</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13877,7 +13881,7 @@
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R101" t="s" s="2">
         <v>76</v>
@@ -13919,7 +13923,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>85</v>
@@ -13954,7 +13958,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13977,13 +13981,13 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -14022,17 +14026,17 @@
         <v>76</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB102" s="2"/>
       <c r="AC102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14067,10 +14071,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>76</v>
@@ -14092,13 +14096,13 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14125,11 +14129,11 @@
         <v>76</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>76</v>
@@ -14147,7 +14151,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14185,7 +14189,7 @@
         <v>130</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>76</v>
@@ -14207,13 +14211,13 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14322,13 +14326,13 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -14379,7 +14383,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14397,7 +14401,7 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>76</v>
@@ -14414,7 +14418,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14485,7 +14489,7 @@
         <v>134</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>76</v>
@@ -14494,7 +14498,7 @@
         <v>135</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14529,7 +14533,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14555,13 +14559,13 @@
         <v>101</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14569,7 +14573,7 @@
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>76</v>
@@ -14611,7 +14615,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>85</v>
@@ -14646,7 +14650,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14669,13 +14673,13 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14714,17 +14718,17 @@
         <v>76</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB108" s="2"/>
       <c r="AC108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -14759,10 +14763,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>76</v>
@@ -14784,13 +14788,13 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14817,11 +14821,11 @@
         <v>76</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X109" s="2"/>
       <c r="Y109" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>76</v>
@@ -14839,7 +14843,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14877,7 +14881,7 @@
         <v>130</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>76</v>
@@ -14899,13 +14903,13 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14994,7 +14998,7 @@
         <v>130</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>76</v>
@@ -15016,13 +15020,13 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15111,7 +15115,7 @@
         <v>130</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>76</v>
@@ -15133,13 +15137,13 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15225,11 +15229,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15251,16 +15255,16 @@
         <v>131</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -15309,7 +15313,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15344,7 +15348,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15367,19 +15371,19 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>76</v>
@@ -15428,7 +15432,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15446,7 +15450,7 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>76</v>
@@ -15455,7 +15459,7 @@
         <v>76</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>76</v>
@@ -15463,7 +15467,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15489,16 +15493,16 @@
         <v>107</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>76</v>
@@ -15523,13 +15527,13 @@
         <v>76</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>76</v>
@@ -15547,7 +15551,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>85</v>
@@ -15562,13 +15566,13 @@
         <v>98</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15582,7 +15586,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15605,17 +15609,17 @@
         <v>86</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15643,10 +15647,10 @@
         <v>111</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>76</v>
@@ -15664,7 +15668,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15685,13 +15689,13 @@
         <v>76</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>76</v>
@@ -15699,7 +15703,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15722,19 +15726,19 @@
         <v>86</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>76</v>
@@ -15783,7 +15787,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -15804,21 +15808,21 @@
         <v>76</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15841,19 +15845,19 @@
         <v>86</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>76</v>
@@ -15902,7 +15906,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -15923,21 +15927,21 @@
         <v>76</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15960,17 +15964,17 @@
         <v>86</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>76</v>
@@ -16019,7 +16023,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16040,21 +16044,21 @@
         <v>76</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16077,17 +16081,17 @@
         <v>86</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>76</v>
@@ -16136,7 +16140,7 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>85</v>
@@ -16151,27 +16155,27 @@
         <v>98</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16194,19 +16198,19 @@
         <v>86</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>76</v>
@@ -16255,7 +16259,7 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -16279,10 +16283,10 @@
         <v>76</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>76</v>
@@ -16290,7 +16294,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16313,19 +16317,19 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>76</v>
@@ -16350,13 +16354,13 @@
         <v>76</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>76</v>
@@ -16374,7 +16378,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16398,7 +16402,7 @@
         <v>76</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>76</v>
@@ -16409,7 +16413,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16432,17 +16436,17 @@
         <v>86</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>76</v>
@@ -16491,7 +16495,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -16506,19 +16510,19 @@
         <v>98</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>76</v>
@@ -16526,7 +16530,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16549,19 +16553,19 @@
         <v>86</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
@@ -16610,7 +16614,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>85</v>
@@ -16631,21 +16635,21 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16668,19 +16672,19 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -16729,7 +16733,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -16764,7 +16768,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16787,13 +16791,13 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16844,7 +16848,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16862,7 +16866,7 @@
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>76</v>
@@ -16879,11 +16883,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16905,13 +16909,13 @@
         <v>131</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -16961,7 +16965,7 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
@@ -16979,7 +16983,7 @@
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>76</v>
@@ -16996,11 +17000,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17022,16 +17026,16 @@
         <v>131</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -17080,7 +17084,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
@@ -17115,7 +17119,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17138,17 +17142,17 @@
         <v>86</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -17173,11 +17177,11 @@
         <v>76</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X129" s="2"/>
       <c r="Y129" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>76</v>
@@ -17195,7 +17199,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>85</v>
@@ -17230,7 +17234,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17253,19 +17257,19 @@
         <v>86</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -17314,7 +17318,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>85</v>
@@ -17338,18 +17342,18 @@
         <v>76</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17372,17 +17376,17 @@
         <v>86</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17431,7 +17435,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17455,18 +17459,18 @@
         <v>76</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17489,17 +17493,17 @@
         <v>86</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -17548,7 +17552,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -17575,7 +17579,7 @@
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>76</v>
@@ -17583,7 +17587,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17606,17 +17610,17 @@
         <v>86</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>76</v>
@@ -17665,7 +17669,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -17689,7 +17693,7 @@
         <v>76</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>76</v>
@@ -17700,11 +17704,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17723,19 +17727,19 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>76</v>
@@ -17784,7 +17788,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17819,7 +17823,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17842,13 +17846,13 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -17899,7 +17903,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17917,7 +17921,7 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>76</v>
@@ -17934,11 +17938,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17960,13 +17964,13 @@
         <v>131</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -18016,7 +18020,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -18034,7 +18038,7 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>76</v>
@@ -18051,11 +18055,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18077,16 +18081,16 @@
         <v>131</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
@@ -18135,7 +18139,7 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
@@ -18170,7 +18174,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18193,19 +18197,19 @@
         <v>86</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>76</v>
@@ -18230,13 +18234,13 @@
         <v>76</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>76</v>
@@ -18254,7 +18258,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -18289,7 +18293,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18312,19 +18316,19 @@
         <v>86</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>76</v>
@@ -18373,7 +18377,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>85</v>
@@ -18397,18 +18401,18 @@
         <v>76</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18431,17 +18435,17 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -18490,7 +18494,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
@@ -18525,7 +18529,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18548,13 +18552,13 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -18605,7 +18609,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>77</v>
@@ -18623,7 +18627,7 @@
         <v>76</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>76</v>
@@ -18640,11 +18644,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18666,13 +18670,13 @@
         <v>131</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -18722,7 +18726,7 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>77</v>
@@ -18740,7 +18744,7 @@
         <v>76</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>76</v>
@@ -18757,11 +18761,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18783,16 +18787,16 @@
         <v>131</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>76</v>
@@ -18841,7 +18845,7 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>77</v>
@@ -18876,7 +18880,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18899,17 +18903,17 @@
         <v>86</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>76</v>
@@ -18934,13 +18938,13 @@
         <v>76</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>76</v>
@@ -18958,7 +18962,7 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>85</v>
@@ -18993,7 +18997,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19016,17 +19020,17 @@
         <v>86</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>76</v>
@@ -19075,7 +19079,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>77</v>
@@ -19110,7 +19114,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19133,19 +19137,19 @@
         <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>76</v>
@@ -19194,7 +19198,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>77</v>
@@ -19229,7 +19233,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19252,17 +19256,17 @@
         <v>76</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>76</v>
@@ -19311,7 +19315,7 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>77</v>
@@ -19329,19 +19333,19 @@
         <v>76</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
